--- a/references/File_labels.xlsx
+++ b/references/File_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbede\Documents\Statistiques\Rural_obs_Madagascar\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AD46FDE-3F19-49EB-8B42-4C01D9A678B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CADE94-8EB3-4859-A73E-78641F9587F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21105" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$230</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="594">
   <si>
     <t>filename</t>
   </si>
@@ -55,9 +55,6 @@
     <t>1995</t>
   </si>
   <si>
-    <t>Main Household Activity Participation</t>
-  </si>
-  <si>
     <t>Participation à l'activité principale du ménage</t>
   </si>
   <si>
@@ -67,42 +64,27 @@
     <t>1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Activities and Income</t>
-  </si>
-  <si>
     <t>res_as1.dta</t>
   </si>
   <si>
-    <t>Artisanal &amp; Food Transformation Activities</t>
-  </si>
-  <si>
     <t>Activités artisanales et de transformation alimentaire</t>
   </si>
   <si>
     <t>res_as3.dta</t>
   </si>
   <si>
-    <t>Annual Business Transactions</t>
-  </si>
-  <si>
     <t>Transactions commerciales annuelles</t>
   </si>
   <si>
     <t>res_as4.dta</t>
   </si>
   <si>
-    <t>Secondary Business Activities Overview</t>
-  </si>
-  <si>
     <t>Aperçu des activités commerciales secondaires</t>
   </si>
   <si>
     <t>res_asm.dta</t>
   </si>
   <si>
-    <t>Secondary Activity Participants</t>
-  </si>
-  <si>
     <t>Participants aux activités secondaires</t>
   </si>
   <si>
@@ -112,18 +94,12 @@
     <t>1998, 1999</t>
   </si>
   <si>
-    <t>Water Collection</t>
-  </si>
-  <si>
     <t>Collecte d'eau</t>
   </si>
   <si>
     <t>res_be2.dta</t>
   </si>
   <si>
-    <t>Deadwood Collection</t>
-  </si>
-  <si>
     <t>Collecte de bois mort</t>
   </si>
   <si>
@@ -139,63 +115,42 @@
     <t>1995, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Crop Production and Sales</t>
-  </si>
-  <si>
     <t>res_c0.dta</t>
   </si>
   <si>
     <t>2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Other Crop Information</t>
-  </si>
-  <si>
     <t>res_c1.dta</t>
   </si>
   <si>
     <t>1996</t>
   </si>
   <si>
-    <t>Parcel Details and Tenure</t>
-  </si>
-  <si>
     <t>Détails des parcelles et statut foncier</t>
   </si>
   <si>
     <t>res_c17.dta</t>
   </si>
   <si>
-    <t>Main and Off-season Crops</t>
-  </si>
-  <si>
     <t>Cultures principales et hors saison</t>
   </si>
   <si>
     <t>res_c19.dta</t>
   </si>
   <si>
-    <t>Crop Sales and Revenue</t>
-  </si>
-  <si>
     <t>Vente de récoltes et revenus</t>
   </si>
   <si>
     <t>res_c8.dta</t>
   </si>
   <si>
-    <t>Parcel Distance, Soil Type, and Cultivation</t>
-  </si>
-  <si>
     <t>Distance de la parcelle, type de sol et culture</t>
   </si>
   <si>
     <t>res_c_5ans.dta</t>
   </si>
   <si>
-    <t>Five-Year Crop Practice Trends</t>
-  </si>
-  <si>
     <t>Tendances de culture sur cinq ans</t>
   </si>
   <si>
@@ -205,9 +160,6 @@
     <t>2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Damage Factors</t>
-  </si>
-  <si>
     <t>res_cc2.dta</t>
   </si>
   <si>
@@ -223,69 +175,42 @@
     <t>res_ccp.dta</t>
   </si>
   <si>
-    <t>Household Foraging Activities</t>
-  </si>
-  <si>
     <t>Activités de cueillette du ménage</t>
   </si>
   <si>
-    <t>Collection of Natural Products and Fishing, Hunting, or Gathering Activities</t>
-  </si>
-  <si>
     <t>res_ccp3.dta</t>
   </si>
   <si>
-    <t>Natural Product Collection Trends</t>
-  </si>
-  <si>
     <t>Tendances de la collecte de produits naturels</t>
   </si>
   <si>
-    <t>Collection of Natural Products and Income - Part 3    Collecte de produits naturels et revenus - Partie 3</t>
-  </si>
-  <si>
     <t>res_ce.dta</t>
   </si>
   <si>
     <t>2001, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Household Well-being</t>
-  </si>
-  <si>
     <t>res_cie.dta</t>
   </si>
   <si>
-    <t>Household Expense and Cost</t>
-  </si>
-  <si>
     <t>res_cie3.dta</t>
   </si>
   <si>
     <t>1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008</t>
   </si>
   <si>
-    <t>Payment for Animal Care Expenses</t>
-  </si>
-  <si>
     <t>res_cip.dta</t>
   </si>
   <si>
     <t>2003, 2004, 2005, 2006, 2007</t>
   </si>
   <si>
-    <t>Active Development Projects in the Village</t>
-  </si>
-  <si>
     <t>res_cip2.dta</t>
   </si>
   <si>
     <t>2005, 2006, 2007</t>
   </si>
   <si>
-    <t>Details of Development Projects in the Village</t>
-  </si>
-  <si>
     <t>res_cipec.dta</t>
   </si>
   <si>
@@ -307,9 +232,6 @@
     <t>res_d1.dta</t>
   </si>
   <si>
-    <t>Expenditure on PPN</t>
-  </si>
-  <si>
     <t>Dépense sur PPN</t>
   </si>
   <si>
@@ -319,9 +241,6 @@
     <t>1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2010, 2011</t>
   </si>
   <si>
-    <t>Product Quantities and Amounts</t>
-  </si>
-  <si>
     <t>res_d1aa.dta</t>
   </si>
   <si>
@@ -340,9 +259,6 @@
     <t>res_d1b.dta</t>
   </si>
   <si>
-    <t>Product Amounts</t>
-  </si>
-  <si>
     <t>res_d1ba.dta</t>
   </si>
   <si>
@@ -352,63 +268,42 @@
     <t>res_d1t.dta</t>
   </si>
   <si>
-    <t>Total PPN Expenditure</t>
-  </si>
-  <si>
     <t>Dépense totale PPN</t>
   </si>
   <si>
     <t>res_d2a.dta</t>
   </si>
   <si>
-    <t>Expenditure on Home Furniture</t>
-  </si>
-  <si>
     <t>Dépense en mobilier de maison</t>
   </si>
   <si>
     <t>res_d2at.dta</t>
   </si>
   <si>
-    <t>Total Expenditure on Home Furniture</t>
-  </si>
-  <si>
     <t>Dépense totale en mobilier de maison</t>
   </si>
   <si>
     <t>res_d2b.dta</t>
   </si>
   <si>
-    <t>Expenditure on Clothing - House Linen - Jewelry</t>
-  </si>
-  <si>
     <t>Dépense en habillement - linge de maison - bijoux</t>
   </si>
   <si>
     <t>res_d2bt.dta</t>
   </si>
   <si>
-    <t>Total Expenditure on Clothing - House Linen - Jewelry</t>
-  </si>
-  <si>
     <t>Dépense totale en habillement - linge de maison - bijoux</t>
   </si>
   <si>
     <t>res_d2c.dta</t>
   </si>
   <si>
-    <t>Expenditure on Kitchen Utensils</t>
-  </si>
-  <si>
     <t>Dépense en ustensiles de cuisine</t>
   </si>
   <si>
     <t>res_d2ct.dta</t>
   </si>
   <si>
-    <t>Total Expenditure on Kitchen Utensils</t>
-  </si>
-  <si>
     <t>Dépense totale en ustensiles de cuisine</t>
   </si>
   <si>
@@ -418,39 +313,24 @@
     <t>1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Miscellaneous Household Expenses</t>
-  </si>
-  <si>
     <t>res_dc1.dta</t>
   </si>
   <si>
-    <t>Monthly Crop Statistics</t>
-  </si>
-  <si>
     <t>res_dc20.dta</t>
   </si>
   <si>
     <t>1995, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Rice Sales Information</t>
-  </si>
-  <si>
     <t>res_dc21.dta</t>
   </si>
   <si>
-    <t>Rice Sales Details</t>
-  </si>
-  <si>
     <t>res_dc3.dta</t>
   </si>
   <si>
     <t>2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Sales of Rice By-Products</t>
-  </si>
-  <si>
     <t>res_dc41.dta</t>
   </si>
   <si>
@@ -466,15 +346,9 @@
     <t>res_dce.dta</t>
   </si>
   <si>
-    <t>Price Evolution of Producer Goods</t>
-  </si>
-  <si>
     <t>Évolution des prix des biens de producteur</t>
   </si>
   <si>
-    <t>Decisions About Buying Paddy</t>
-  </si>
-  <si>
     <t>res_de.dta</t>
   </si>
   <si>
@@ -484,48 +358,30 @@
     <t>res_deb.dta</t>
   </si>
   <si>
-    <t>Household and Interview Information</t>
-  </si>
-  <si>
     <t>res_deg1.dta</t>
   </si>
   <si>
     <t>1998, 1999, 2000, 2001, 2002, 2003, 2004, 2006, 2007</t>
   </si>
   <si>
-    <t>Crop Damage Observation</t>
-  </si>
-  <si>
     <t>res_deg2.dta</t>
   </si>
   <si>
-    <t>Detailed Crop Damage Data</t>
-  </si>
-  <si>
     <t>res_e.dta</t>
   </si>
   <si>
     <t>1995, 1996, 1997, 1998, 1999, 2000, 2001, 2012, 2015</t>
   </si>
   <si>
-    <t>Household Equipment and Acquisitions</t>
-  </si>
-  <si>
     <t>Équipement ménager et acquisitions</t>
   </si>
   <si>
-    <t>Equipment Information    Informations sur le matériel agricole</t>
-  </si>
-  <si>
     <t>res_ee1.dta</t>
   </si>
   <si>
     <t>1998, 1999, 2000, 2001</t>
   </si>
   <si>
-    <t>Agricultural Equipment Ownership</t>
-  </si>
-  <si>
     <t>Possession d'équipements agricoles</t>
   </si>
   <si>
@@ -535,9 +391,6 @@
     <t>1998</t>
   </si>
   <si>
-    <t>Agricultural Equipment Fabrication and Rental</t>
-  </si>
-  <si>
     <t>Fabrication et location de matériels agricoles</t>
   </si>
   <si>
@@ -547,9 +400,6 @@
     <t>1997, 1998</t>
   </si>
   <si>
-    <t>Self-Made Equipment</t>
-  </si>
-  <si>
     <t>Équipement auto-fabriqué</t>
   </si>
   <si>
@@ -559,9 +409,6 @@
     <t>1996, 1997, 1998</t>
   </si>
   <si>
-    <t>Equipment Rental Data</t>
-  </si>
-  <si>
     <t>Location d'équipement</t>
   </si>
   <si>
@@ -577,24 +424,15 @@
     <t>1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Livestock Practices</t>
-  </si>
-  <si>
     <t>res_el2_boeuf.dta</t>
   </si>
   <si>
-    <t>Ownership of Cattle</t>
-  </si>
-  <si>
     <t>Possession de bétail</t>
   </si>
   <si>
     <t>res_elc.dta</t>
   </si>
   <si>
-    <t>Production Levels by Quarter</t>
-  </si>
-  <si>
     <t>Niveaux de production par trimestre</t>
   </si>
   <si>
@@ -604,42 +442,27 @@
     <t>1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Livestock Management Details</t>
-  </si>
-  <si>
     <t>res_ele_autre.dta</t>
   </si>
   <si>
-    <t>Livestock Transactions and Inventory</t>
-  </si>
-  <si>
     <t>Transactions et inventaire du bétail</t>
   </si>
   <si>
     <t>res_ele_autre_tot.dta</t>
   </si>
   <si>
-    <t>Total Livestock Transactions and Inventory</t>
-  </si>
-  <si>
     <t>Transactions totales et inventaire du bétail</t>
   </si>
   <si>
     <t>res_ele_boeuf.dta</t>
   </si>
   <si>
-    <t>Bovine Livestock Transactions</t>
-  </si>
-  <si>
     <t>Transactions de bétail bovin</t>
   </si>
   <si>
     <t>res_ele_boeuf_tot.dta</t>
   </si>
   <si>
-    <t>Complete Cattle Inventory and Transactions</t>
-  </si>
-  <si>
     <t>Inventaire complet et transactions de bétail</t>
   </si>
   <si>
@@ -682,9 +505,6 @@
     <t>res_foncier.dta</t>
   </si>
   <si>
-    <t>Land Tenure and Transactions in Rice Fields</t>
-  </si>
-  <si>
     <t>Foncier et transactions de rizières</t>
   </si>
   <si>
@@ -700,18 +520,12 @@
     <t>1998, 1999, 2000, 2001, 2002, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Parcel Ownership and Cultivation</t>
-  </si>
-  <si>
     <t>res_fr14.dta</t>
   </si>
   <si>
     <t>2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012</t>
   </si>
   <si>
-    <t>Land Ownership Issues</t>
-  </si>
-  <si>
     <t>res_fr15.dta</t>
   </si>
   <si>
@@ -736,30 +550,18 @@
     <t>1999, 2000, 2001, 2002, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Parcel Transfer Details</t>
-  </si>
-  <si>
     <t>res_fr23.dta</t>
   </si>
   <si>
-    <t>Parcel Acquisition Details</t>
-  </si>
-  <si>
     <t>res_fr2a.dta</t>
   </si>
   <si>
-    <t>Rice Field Acquisition</t>
-  </si>
-  <si>
     <t>Acquisition de rizières</t>
   </si>
   <si>
     <t>res_fr2b.dta</t>
   </si>
   <si>
-    <t>Rice Field Cession</t>
-  </si>
-  <si>
     <t>Cession de rizières</t>
   </si>
   <si>
@@ -781,9 +583,6 @@
     <t>2001, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2014, 2015</t>
   </si>
   <si>
-    <t>Household and Security Information</t>
-  </si>
-  <si>
     <t>res_g8.dta</t>
   </si>
   <si>
@@ -808,9 +607,6 @@
     <t>res_im.dta</t>
   </si>
   <si>
-    <t>Real Estate Data</t>
-  </si>
-  <si>
     <t>Données sur l'immobilier</t>
   </si>
   <si>
@@ -820,36 +616,21 @@
     <t>2006, 2007</t>
   </si>
   <si>
-    <t>Information Channels and Topics</t>
-  </si>
-  <si>
     <t>res_ita.dta</t>
   </si>
   <si>
-    <t>Input Quantities and Costs</t>
-  </si>
-  <si>
     <t>res_ita0.dta</t>
   </si>
   <si>
-    <t>Use of Fertilizers and Pesticides for Rice</t>
-  </si>
-  <si>
     <t>res_itb.dta</t>
   </si>
   <si>
-    <t>Input Quantities and Costs for Various Inputs</t>
-  </si>
-  <si>
     <t>res_itb0.dta</t>
   </si>
   <si>
     <t>2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014</t>
   </si>
   <si>
-    <t>Use of Fertilizers and Pesticides for Other Crops</t>
-  </si>
-  <si>
     <t>res_itb0_2015_frs.dta</t>
   </si>
   <si>
@@ -865,18 +646,12 @@
     <t>1997, 1998, 1999, 2000</t>
   </si>
   <si>
-    <t>Crop Storage Behavior</t>
-  </si>
-  <si>
     <t>Comportement de stockage des récoltes</t>
   </si>
   <si>
     <t>res_k2.dta</t>
   </si>
   <si>
-    <t>Details of Stored Crops</t>
-  </si>
-  <si>
     <t>Détails des récoltes stockées</t>
   </si>
   <si>
@@ -886,9 +661,6 @@
     <t>1995, 1998, 1999, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Family Settlement and Origin</t>
-  </si>
-  <si>
     <t>Installation et origine de la famille</t>
   </si>
   <si>
@@ -898,36 +670,24 @@
     <t>1996, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Rice Fields Location Data</t>
-  </si>
-  <si>
     <t>Localisation des rizières</t>
   </si>
   <si>
     <t>res_l2.dta</t>
   </si>
   <si>
-    <t>Parcel Location Data</t>
-  </si>
-  <si>
     <t>Localisation des parcelles</t>
   </si>
   <si>
     <t>res_m.dta</t>
   </si>
   <si>
-    <t>Household Member Details and Education</t>
-  </si>
-  <si>
     <t>Détails des membres du ménage et éducation</t>
   </si>
   <si>
     <t>res_m_a.dta</t>
   </si>
   <si>
-    <t>Household Member Information and Activities</t>
-  </si>
-  <si>
     <t>res_mf.dta</t>
   </si>
   <si>
@@ -961,33 +721,21 @@
     <t>1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2015</t>
   </si>
   <si>
-    <t>Rice Farming Labor and Costs</t>
-  </si>
-  <si>
     <t>res_mo3.dta</t>
   </si>
   <si>
-    <t>Labor and Costs for Other Crops</t>
-  </si>
-  <si>
     <t>res_mo5.dta</t>
   </si>
   <si>
     <t>1997</t>
   </si>
   <si>
-    <t>Reciprocity in Mutual Aid</t>
-  </si>
-  <si>
     <t>Réciprocité dans l'entraide</t>
   </si>
   <si>
     <t>res_mob.dta</t>
   </si>
   <si>
-    <t>Market and City Mobility Patterns</t>
-  </si>
-  <si>
     <t>Modèles de mobilité vers le marché et la ville</t>
   </si>
   <si>
@@ -1042,24 +790,15 @@
     <t>1995, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Monetary Savings, Investment, and Borrowing Information</t>
-  </si>
-  <si>
     <t>res_p_96.dta</t>
   </si>
   <si>
-    <t>Financial Activities and Borrowings</t>
-  </si>
-  <si>
     <t>Activités financières et emprunts</t>
   </si>
   <si>
     <t>res_pas.dta</t>
   </si>
   <si>
-    <t>Knowledge and Perception about PAS</t>
-  </si>
-  <si>
     <t>Connaissance et perception du PAS</t>
   </si>
   <si>
@@ -1069,30 +808,18 @@
     <t>2003, 2004, 2005, 2006, 2007, 2015</t>
   </si>
   <si>
-    <t>Membership in Associations</t>
-  </si>
-  <si>
     <t>res_pb1.dta</t>
   </si>
   <si>
-    <t>Membership in Agricultural Associations and Marketing Issues</t>
-  </si>
-  <si>
     <t>Adhésion aux associations agricoles et problèmes de commercialisation</t>
   </si>
   <si>
     <t>res_pe.dta</t>
   </si>
   <si>
-    <t>Consumption of Various Products</t>
-  </si>
-  <si>
     <t>res_pe_lait.dta</t>
   </si>
   <si>
-    <t>Dairy Farming Practices and Livestock Management</t>
-  </si>
-  <si>
     <t>Pratiques d'élevage laitier et gestion du bétail</t>
   </si>
   <si>
@@ -1108,18 +835,12 @@
     <t>1996, 1997, 1998, 1999, 2000</t>
   </si>
   <si>
-    <t>Livestock Production Evaluation</t>
-  </si>
-  <si>
     <t>Evaluation de la production d'élevage</t>
   </si>
   <si>
     <t>res_per.dta</t>
   </si>
   <si>
-    <t>Perceptions about Rice Consumption and Production</t>
-  </si>
-  <si>
     <t>Perceptions sur la consommation et la production de riz</t>
   </si>
   <si>
@@ -1129,15 +850,9 @@
     <t>1997, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Detailed Information on Various Expenditures</t>
-  </si>
-  <si>
     <t>res_pp_g.dta</t>
   </si>
   <si>
-    <t>Perceived Challenges and Economic Perspectives</t>
-  </si>
-  <si>
     <t>Défis perçus et perspectives économiques</t>
   </si>
   <si>
@@ -1156,15 +871,9 @@
     <t>res_r.dta</t>
   </si>
   <si>
-    <t>Rice Cultivation Details and Practices</t>
-  </si>
-  <si>
     <t>res_r1a.dta</t>
   </si>
   <si>
-    <t>Rice Cultivation and Sales in 2007-2008</t>
-  </si>
-  <si>
     <t>res_r23c.dta</t>
   </si>
   <si>
@@ -1174,36 +883,24 @@
     <t>res_r30.dta</t>
   </si>
   <si>
-    <t>Seed Usage and Cost</t>
-  </si>
-  <si>
     <t>Utilisation et coût des semences</t>
   </si>
   <si>
     <t>res_r34.dta</t>
   </si>
   <si>
-    <t>Difficulties Using Agricultural Products</t>
-  </si>
-  <si>
     <t>Difficultés d'utilisation des produits agricoles</t>
   </si>
   <si>
     <t>res_r60.dta</t>
   </si>
   <si>
-    <t>Rice Seed Source and Expenditure</t>
-  </si>
-  <si>
     <t>Source de semence de riz et dépenses</t>
   </si>
   <si>
     <t>res_r_tot.dta</t>
   </si>
   <si>
-    <t>Total Rice Production and Yield</t>
-  </si>
-  <si>
     <t>Production et rendement totaux du riz</t>
   </si>
   <si>
@@ -1216,9 +913,6 @@
     <t>2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Other Sources of Financing in 2007/08</t>
-  </si>
-  <si>
     <t>res_rmq.dta</t>
   </si>
   <si>
@@ -1231,18 +925,12 @@
     <t>res_sa.dta</t>
   </si>
   <si>
-    <t>Food Consumption and Periods of Food Scarcity</t>
-  </si>
-  <si>
     <t>res_sa2.dta</t>
   </si>
   <si>
     <t>1995, 1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014</t>
   </si>
   <si>
-    <t>Food Sufficiency and Purchasing Behavior</t>
-  </si>
-  <si>
     <t>res_sa2_2015.dta</t>
   </si>
   <si>
@@ -1255,15 +943,9 @@
     <t>2005, 2006, 2007, 2008, 2009, 2010, 2011</t>
   </si>
   <si>
-    <t>Acquisition of Food Items</t>
-  </si>
-  <si>
     <t>res_sa51.dta</t>
   </si>
   <si>
-    <t>Purchase of Food Items</t>
-  </si>
-  <si>
     <t>res_sa6b.dta</t>
   </si>
   <si>
@@ -1276,9 +958,6 @@
     <t>1996, 1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013</t>
   </si>
   <si>
-    <t>Detailed Information on Basic Food Consumption</t>
-  </si>
-  <si>
     <t>res_sa_alimentdebase.dta</t>
   </si>
   <si>
@@ -1291,24 +970,15 @@
     <t>2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Detailed Information on Other Food Consumption</t>
-  </si>
-  <si>
     <t>res_sal3.dta</t>
   </si>
   <si>
     <t>2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011</t>
   </si>
   <si>
-    <t>Frequency of Basic Food Consumption</t>
-  </si>
-  <si>
     <t>res_salariat.dta</t>
   </si>
   <si>
-    <t>Salaried Work Details and Earnings</t>
-  </si>
-  <si>
     <t>Détails du travail salarié et gains</t>
   </si>
   <si>
@@ -1318,9 +988,6 @@
     <t>2006, 2007, 2008, 2009</t>
   </si>
   <si>
-    <t>Maternal and Child Health Information</t>
-  </si>
-  <si>
     <t>res_sanm.dta</t>
   </si>
   <si>
@@ -1351,9 +1018,6 @@
     <t>res_st.dta</t>
   </si>
   <si>
-    <t>Primary Health Concerns and Medical Practices</t>
-  </si>
-  <si>
     <t>Problèmes de santé principaux et pratiques médicales</t>
   </si>
   <si>
@@ -1363,57 +1027,36 @@
     <t>2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2015</t>
   </si>
   <si>
-    <t>Transfers Information</t>
-  </si>
-  <si>
     <t>res_t1.dta</t>
   </si>
   <si>
     <t>2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Transfers - Outgoing Details</t>
-  </si>
-  <si>
     <t>res_t2.dta</t>
   </si>
   <si>
-    <t>Transfers - Incoming Details</t>
-  </si>
-  <si>
     <t>res_um.dta</t>
   </si>
   <si>
     <t>2006, 2007, 2008</t>
   </si>
   <si>
-    <t>Water Treatment, Handwashing, and Mosquito Net Usage Information</t>
-  </si>
-  <si>
     <t>res_v.dta</t>
   </si>
   <si>
     <t>1995, 1997, 1998, 1999, 2000, 2001, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015</t>
   </si>
   <si>
-    <t>Household Assets Information</t>
-  </si>
-  <si>
     <t>res_v1.dta</t>
   </si>
   <si>
-    <t>Purchases and Sales of Equipment</t>
-  </si>
-  <si>
     <t>Achats et ventes d'équipement</t>
   </si>
   <si>
     <t>res_v2.dta</t>
   </si>
   <si>
-    <t>Transport Equipment Transactions</t>
-  </si>
-  <si>
     <t>Transactions d'équipement de transport</t>
   </si>
   <si>
@@ -1435,9 +1078,6 @@
     <t>res_w4.dta</t>
   </si>
   <si>
-    <t>Challenges in Hiring Seasonal Workers</t>
-  </si>
-  <si>
     <t>Défis dans l'embauche de travailleurs saisonniers</t>
   </si>
   <si>
@@ -1447,171 +1087,87 @@
     <t>2007</t>
   </si>
   <si>
-    <t>Food Assistance History and Child Nutrition Programs</t>
-  </si>
-  <si>
     <t>rx_ali4.dta</t>
   </si>
   <si>
-    <t>Food Assistance Details</t>
-  </si>
-  <si>
     <t>rx_c1.dta</t>
   </si>
   <si>
-    <t>Crop Cultivation Practices Information</t>
-  </si>
-  <si>
     <t>rx_c2.dta</t>
   </si>
   <si>
-    <t>Crop Commercialization and Contractualization Information</t>
-  </si>
-  <si>
     <t>rx_cf.dta</t>
   </si>
   <si>
-    <t>Household Assets and Access to Services Information</t>
-  </si>
-  <si>
     <t>rx_e.dta</t>
   </si>
   <si>
     <t>2007, 2008</t>
   </si>
   <si>
-    <t>Agricultural Equipment Usage and Access Information</t>
-  </si>
-  <si>
     <t>rx_e6.dta</t>
   </si>
   <si>
-    <t>Short-Term Agricultural Equipment Acquisition and Farm Buildings Information</t>
-  </si>
-  <si>
     <t>rx_fr1.dta</t>
   </si>
   <si>
-    <t>Land Parcel Transactions and Plans Information</t>
-  </si>
-  <si>
     <t>rx_j.dta</t>
   </si>
   <si>
-    <t>Household Installation in the Village and Reasons for Recent Installations</t>
-  </si>
-  <si>
     <t>rx_jn.dta</t>
   </si>
   <si>
-    <t>Children Who No Longer Reside in the Household, Their Activities, and Future Plans</t>
-  </si>
-  <si>
     <t>rx_m.dta</t>
   </si>
   <si>
-    <t>Household Members' Residence Status, Migration, and Educational Institutions</t>
-  </si>
-  <si>
     <t>rx_mo.dta</t>
   </si>
   <si>
-    <t>Use of Salaried Labor in the Past 5 Years and Reasons for Not Using It</t>
-  </si>
-  <si>
     <t>rx_pe1.dta</t>
   </si>
   <si>
-    <t>Livestock Products, Reasons for Sale, and Sale Details</t>
-  </si>
-  <si>
     <t>rx_pe2.dta</t>
   </si>
   <si>
-    <t>Livestock Product Contracts, Details, and Compliance</t>
-  </si>
-  <si>
     <t>rx_sa.dta</t>
   </si>
   <si>
-    <t>Self-sufficiency in Basic Food Over the Last 5 Years and Reasons for Decrease</t>
-  </si>
-  <si>
     <t>rx_tj1.dta</t>
   </si>
   <si>
-    <t>Parental Residence, Rural Background, and Transition to Household Head</t>
-  </si>
-  <si>
     <t>rx_tj2.dta</t>
   </si>
   <si>
-    <t>Cultivation Practices at Installation and Changes in Cultivation</t>
-  </si>
-  <si>
     <t>rx_tj3.dta</t>
   </si>
   <si>
-    <t>Introduction of New Crops and Livestock Practices Since Installation</t>
-  </si>
-  <si>
     <t>rx_tj4.dta</t>
   </si>
   <si>
-    <t>Types of Livestock Practices Developed or Discontinued and Status of Past Contracts</t>
-  </si>
-  <si>
     <t>rx_tj5.dta</t>
   </si>
   <si>
-    <t>Introduction and Discontinuation of Livestock Types and Non-Agricultural Activities, and Evolution of Living Conditions</t>
-  </si>
-  <si>
     <t>rx_v.dta</t>
   </si>
   <si>
-    <t>Agricultural Advisory Services and Satisfaction with Services</t>
-  </si>
-  <si>
     <t>Panel households</t>
   </si>
   <si>
     <t>Support received</t>
   </si>
   <si>
-    <t>Needs and survey perception</t>
-  </si>
-  <si>
     <t>Disaster damages on agriculture</t>
   </si>
   <si>
-    <t>Damages from disasters and support</t>
-  </si>
-  <si>
-    <t>CIPEC</t>
-  </si>
-  <si>
     <t>Livelihood trends, causes and consequences</t>
   </si>
   <si>
     <t>Ceremony organization and attendance</t>
   </si>
   <si>
-    <t>Food quantities and amounts</t>
-  </si>
-  <si>
     <t>Hunger gap period duration</t>
   </si>
   <si>
-    <t>Food quantities and amounts2</t>
-  </si>
-  <si>
-    <t>Hunger gap period duration2</t>
-  </si>
-  <si>
-    <t>Housing, Water Supply, Sanitation, and Lighting</t>
-  </si>
-  <si>
     <t>Non-food current expenditure out of hunger-gap season</t>
   </si>
   <si>
@@ -1639,13 +1195,616 @@
     <t>Evolution des dépenses annuelles</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Annual expenditure trend</t>
   </si>
   <si>
-    <t>Checked</t>
+    <t>Housing conditions</t>
+  </si>
+  <si>
+    <t>Non-hunger gap period duration</t>
+  </si>
+  <si>
+    <t>Food quantities and amounts in non-hunger gap period</t>
+  </si>
+  <si>
+    <t>Food quantities and amounts during hunger gap period</t>
+  </si>
+  <si>
+    <t>Support following damages from disasters</t>
+  </si>
+  <si>
+    <t>Other activities during the reference period</t>
+  </si>
+  <si>
+    <t>Autres activités durant la période de référence</t>
+  </si>
+  <si>
+    <t>Besoins prioritaires du ménage</t>
+  </si>
+  <si>
+    <t>Household priority needs</t>
+  </si>
+  <si>
+    <t>Productions et ventes d'autres cultures</t>
+  </si>
+  <si>
+    <t>Intermediary consumption for livestock</t>
+  </si>
+  <si>
+    <t>Products from livestock farming</t>
+  </si>
+  <si>
+    <t>Detailed information on borrowings</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Food availability and food security</t>
+  </si>
+  <si>
+    <t>Stability of food consumption during hunger-periods</t>
+  </si>
+  <si>
+    <t>Perception on food security</t>
+  </si>
+  <si>
+    <t>Strategy during hunger-period</t>
+  </si>
+  <si>
+    <t>Household assets sales</t>
+  </si>
+  <si>
+    <t>Rice product use</t>
+  </si>
+  <si>
+    <t>Participation to polls</t>
+  </si>
+  <si>
+    <t>Expectation from elected representants</t>
+  </si>
+  <si>
+    <t>Microfinance</t>
+  </si>
+  <si>
+    <t>Microfinance institution spectification</t>
+  </si>
+  <si>
+    <t>Perception of changes from microfinance</t>
+  </si>
+  <si>
+    <t>Previous use of microfinance</t>
+  </si>
+  <si>
+    <t>Previous use of microfinance details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinions on microfinance </t>
+  </si>
+  <si>
+    <t>Farming work force</t>
+  </si>
+  <si>
+    <t>Permanent work force for non-farming activities</t>
+  </si>
+  <si>
+    <t>Sex of permanent work force for non-farming activities</t>
+  </si>
+  <si>
+    <t>Oportunities</t>
+  </si>
+  <si>
+    <t>Runing food expenses</t>
+  </si>
+  <si>
+    <t>Runing non-food expenses</t>
+  </si>
+  <si>
+    <t>Perceptions on governance</t>
+  </si>
+  <si>
+    <t>Farming input issues</t>
+  </si>
+  <si>
+    <t>Issues with livestock farming or reasons not to have livestock</t>
+  </si>
+  <si>
+    <t>Status of land tenure</t>
+  </si>
+  <si>
+    <t>Reason for not legalizing land tenure</t>
+  </si>
+  <si>
+    <t>Social network</t>
+  </si>
+  <si>
+    <t>Trends of other crops</t>
+  </si>
+  <si>
+    <t>Acquisition of land</t>
+  </si>
+  <si>
+    <t>Land ownership</t>
+  </si>
+  <si>
+    <t>Training participation and follow-up</t>
+  </si>
+  <si>
+    <t>Land ownership conflicts</t>
+  </si>
+  <si>
+    <t>Land ownership legalization</t>
+  </si>
+  <si>
+    <t>Use of agricultural inputs</t>
+  </si>
+  <si>
+    <t>Family work force use</t>
+  </si>
+  <si>
+    <t>Family work force details</t>
+  </si>
+  <si>
+    <t>Permanent work force</t>
+  </si>
+  <si>
+    <t>Non-permanent workforce</t>
+  </si>
+  <si>
+    <t>Number of young people trained</t>
+  </si>
+  <si>
+    <t>Height and weight</t>
+  </si>
+  <si>
+    <t>Type of fishing</t>
+  </si>
+  <si>
+    <t>Details on fishing types</t>
+  </si>
+  <si>
+    <t>Cash crop production perspectives</t>
+  </si>
+  <si>
+    <t>Perception of security</t>
+  </si>
+  <si>
+    <t>Drought and hunger experience</t>
+  </si>
+  <si>
+    <t>Agriculture productivity</t>
+  </si>
+  <si>
+    <t>Cultural and material family heritage</t>
+  </si>
+  <si>
+    <t>Participation to collective actions</t>
+  </si>
+  <si>
+    <t>Participation to collective action details</t>
+  </si>
+  <si>
+    <t>Perception of the local context</t>
+  </si>
+  <si>
+    <t>Radio exposure</t>
+  </si>
+  <si>
+    <t>Base food consuption</t>
+  </si>
+  <si>
+    <t>Food security</t>
+  </si>
+  <si>
+    <t>Food secuity details</t>
+  </si>
+  <si>
+    <t>Product usage</t>
+  </si>
+  <si>
+    <t>Children out of the household, activities and plans</t>
+  </si>
+  <si>
+    <t>Main household activity participation</t>
+  </si>
+  <si>
+    <t>Artisanal &amp; food transformation activities</t>
+  </si>
+  <si>
+    <t>Annual business transactions</t>
+  </si>
+  <si>
+    <t>Secondary business activities overview</t>
+  </si>
+  <si>
+    <t>Secondary activity participants</t>
+  </si>
+  <si>
+    <t>Water collection</t>
+  </si>
+  <si>
+    <t>Deadwood collection</t>
+  </si>
+  <si>
+    <t>Other crop production and sales</t>
+  </si>
+  <si>
+    <t>Other crop information</t>
+  </si>
+  <si>
+    <t>Parcel details and tenure</t>
+  </si>
+  <si>
+    <t>Main and off-season crops</t>
+  </si>
+  <si>
+    <t>Crop sales and revenue</t>
+  </si>
+  <si>
+    <t>Parcel distance, soil type, and cultivation</t>
+  </si>
+  <si>
+    <t>Five-year crop practice trends</t>
+  </si>
+  <si>
+    <t>Damage factors</t>
+  </si>
+  <si>
+    <t>Household foraging activities</t>
+  </si>
+  <si>
+    <t>Collection of natural products and fishing, hunting, or gathering activities</t>
+  </si>
+  <si>
+    <t>Natural product collection trends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of natural products and income </t>
+  </si>
+  <si>
+    <t>Household well-being</t>
+  </si>
+  <si>
+    <t>Payment for animal care expenses</t>
+  </si>
+  <si>
+    <t>Active development projects in the village</t>
+  </si>
+  <si>
+    <t>Details of development projects in the village</t>
+  </si>
+  <si>
+    <t>Cipec</t>
+  </si>
+  <si>
+    <t>Expenditure on ppn</t>
+  </si>
+  <si>
+    <t>Total ppn expenditure</t>
+  </si>
+  <si>
+    <t>Expenditure on home furniture</t>
+  </si>
+  <si>
+    <t>Total expenditure on home furniture</t>
+  </si>
+  <si>
+    <t>Expenditure on clothing - house linen - jewelry</t>
+  </si>
+  <si>
+    <t>Total expenditure on clothing - house linen - jewelry</t>
+  </si>
+  <si>
+    <t>Expenditure on kitchen utensils</t>
+  </si>
+  <si>
+    <t>Total expenditure on kitchen utensils</t>
+  </si>
+  <si>
+    <t>Miscellaneous household expenses</t>
+  </si>
+  <si>
+    <t>Rice sales information</t>
+  </si>
+  <si>
+    <t>Rice sales details</t>
+  </si>
+  <si>
+    <t>Sales of rice by-products</t>
+  </si>
+  <si>
+    <t>Price evolution of producer goods</t>
+  </si>
+  <si>
+    <t>Decisions about buying paddy</t>
+  </si>
+  <si>
+    <t>Household and interview information</t>
+  </si>
+  <si>
+    <t>Crop damage observation</t>
+  </si>
+  <si>
+    <t>Detailed crop damage data</t>
+  </si>
+  <si>
+    <t>Household equipment and acquisitions</t>
+  </si>
+  <si>
+    <t>Equipment information    informations sur le matériel agricole</t>
+  </si>
+  <si>
+    <t>Agricultural equipment ownership</t>
+  </si>
+  <si>
+    <t>Agricultural equipment fabrication and rental</t>
+  </si>
+  <si>
+    <t>Self-made equipment</t>
+  </si>
+  <si>
+    <t>Equipment rental data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of livestock practices </t>
+  </si>
+  <si>
+    <t>Livestock practices 2</t>
+  </si>
+  <si>
+    <t>Ownership of cattle</t>
+  </si>
+  <si>
+    <t>Production levels by quarter</t>
+  </si>
+  <si>
+    <t>Livestock management details</t>
+  </si>
+  <si>
+    <t>Livestock transactions and inventory</t>
+  </si>
+  <si>
+    <t>Total livestock transactions and inventory</t>
+  </si>
+  <si>
+    <t>Bovine livestock transactions</t>
+  </si>
+  <si>
+    <t>Complete cattle inventory and transactions</t>
+  </si>
+  <si>
+    <t>Land tenure and transactions in rice fields</t>
+  </si>
+  <si>
+    <t>Parcel ownership and cultivation</t>
+  </si>
+  <si>
+    <t>Land ownership issues</t>
+  </si>
+  <si>
+    <t>Parcel transfer details</t>
+  </si>
+  <si>
+    <t>Parcel acquisition details</t>
+  </si>
+  <si>
+    <t>Rice field acquisition</t>
+  </si>
+  <si>
+    <t>Rice field cession</t>
+  </si>
+  <si>
+    <t>Real estate data</t>
+  </si>
+  <si>
+    <t>Information channels and topics</t>
+  </si>
+  <si>
+    <t>Input quantities and costs</t>
+  </si>
+  <si>
+    <t>Use of fertilizers and pesticides for rice</t>
+  </si>
+  <si>
+    <t>Input quantities and costs for various inputs</t>
+  </si>
+  <si>
+    <t>Use of fertilizers and pesticides for other crops</t>
+  </si>
+  <si>
+    <t>Crop storage behavior</t>
+  </si>
+  <si>
+    <t>Details of stored crops</t>
+  </si>
+  <si>
+    <t>Family settlement and origin</t>
+  </si>
+  <si>
+    <t>Rice fields location data</t>
+  </si>
+  <si>
+    <t>Parcel location data</t>
+  </si>
+  <si>
+    <t>Household member details and education</t>
+  </si>
+  <si>
+    <t>Household member information and activities</t>
+  </si>
+  <si>
+    <t>Rice farming labor and costs</t>
+  </si>
+  <si>
+    <t>Labor and costs for other crops</t>
+  </si>
+  <si>
+    <t>Reciprocity in mutual aid</t>
+  </si>
+  <si>
+    <t>Market and city mobility patterns</t>
+  </si>
+  <si>
+    <t>Monetary savings, investment, and borrowing information</t>
+  </si>
+  <si>
+    <t>Financial activities and borrowings</t>
+  </si>
+  <si>
+    <t>Knowledge and perception about pas</t>
+  </si>
+  <si>
+    <t>Membership in associations</t>
+  </si>
+  <si>
+    <t>Membership in agricultural associations and marketing issues</t>
+  </si>
+  <si>
+    <t>Dairy farming practices and livestock management</t>
+  </si>
+  <si>
+    <t>Livestock production evaluation</t>
+  </si>
+  <si>
+    <t>Perceptions about rice consumption and production</t>
+  </si>
+  <si>
+    <t>Perceived challenges and economic perspectives</t>
+  </si>
+  <si>
+    <t>Rice cultivation details and practices</t>
+  </si>
+  <si>
+    <t>Rice cultivation and sales</t>
+  </si>
+  <si>
+    <t>Seed usage and cost</t>
+  </si>
+  <si>
+    <t>Difficulties using agricultural products</t>
+  </si>
+  <si>
+    <t>Rice seed source and expenditure</t>
+  </si>
+  <si>
+    <t>Total rice production and yield</t>
+  </si>
+  <si>
+    <t>Other sources of incomes</t>
+  </si>
+  <si>
+    <t>Food sufficiency and purchasing behavior</t>
+  </si>
+  <si>
+    <t>Acquisition of food items</t>
+  </si>
+  <si>
+    <t>Purchase of food items</t>
+  </si>
+  <si>
+    <t>Detailed information on basic food consumption</t>
+  </si>
+  <si>
+    <t>Detailed information on other food consumption</t>
+  </si>
+  <si>
+    <t>Frequency of basic food consumption</t>
+  </si>
+  <si>
+    <t>Salaried work details and earnings</t>
+  </si>
+  <si>
+    <t>Child health information</t>
+  </si>
+  <si>
+    <t>Maternal health information</t>
+  </si>
+  <si>
+    <t>Primary health concerns and medical practices</t>
+  </si>
+  <si>
+    <t>Transfers information</t>
+  </si>
+  <si>
+    <t>Transfers - outgoing details</t>
+  </si>
+  <si>
+    <t>Transfers - incoming details</t>
+  </si>
+  <si>
+    <t>Water treatment, handwashing, and mosquito net usage information</t>
+  </si>
+  <si>
+    <t>Household assets information</t>
+  </si>
+  <si>
+    <t>Purchases and sales of equipment</t>
+  </si>
+  <si>
+    <t>Transport equipment transactions</t>
+  </si>
+  <si>
+    <t>Challenges in hiring seasonal workers</t>
+  </si>
+  <si>
+    <t>Food assistance history and child nutrition programs</t>
+  </si>
+  <si>
+    <t>Food assistance details</t>
+  </si>
+  <si>
+    <t>Crop cultivation practices information</t>
+  </si>
+  <si>
+    <t>Crop commercialization and contractualization information</t>
+  </si>
+  <si>
+    <t>Household assets and access to services information</t>
+  </si>
+  <si>
+    <t>Agricultural equipment usage and access information</t>
+  </si>
+  <si>
+    <t>Short-term agricultural equipment acquisition and farm buildings information</t>
+  </si>
+  <si>
+    <t>Land parcel transactions and plans information</t>
+  </si>
+  <si>
+    <t>Household installation in the village and reasons for recent installations</t>
+  </si>
+  <si>
+    <t>Household members' residence status, migration, and educational institutions</t>
+  </si>
+  <si>
+    <t>Use of salaried labor in the past 5 years and reasons for not using it</t>
+  </si>
+  <si>
+    <t>Livestock products, reasons for sale, and sale details</t>
+  </si>
+  <si>
+    <t>Livestock product contracts, details, and compliance</t>
+  </si>
+  <si>
+    <t>Self-sufficiency in basic food over the last 5 years and reasons for decrease</t>
+  </si>
+  <si>
+    <t>Parental residence, rural background, and transition to household head</t>
+  </si>
+  <si>
+    <t>Cultivation practices at installation and changes in cultivation</t>
+  </si>
+  <si>
+    <t>Introduction of new crops and livestock practices since installation</t>
+  </si>
+  <si>
+    <t>Types of livestock practices developed or discontinued</t>
+  </si>
+  <si>
+    <t>Livestock types and non-agricultural activities</t>
+  </si>
+  <si>
+    <t>Agricultural advisory services and satisfaction with services</t>
   </si>
 </sst>
 </file>
@@ -2032,11 +2191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,9 +2203,10 @@
     <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="72.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,11 +2219,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2071,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2082,10 +2239,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2093,2487 +2250,2703 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>463</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
+        <v>467</v>
+      </c>
+      <c r="D13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C15" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>472</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>475</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>477</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>522</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>523</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>484</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>524</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>525</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>526</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>527</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>529</v>
+        <v>381</v>
       </c>
       <c r="D42" t="s">
-        <v>530</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>532</v>
+        <v>384</v>
       </c>
       <c r="D43" t="s">
-        <v>531</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>485</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>487</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>488</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>489</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>491</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>535</v>
+        <v>387</v>
       </c>
       <c r="D56" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>536</v>
+        <v>388</v>
       </c>
       <c r="D57" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>539</v>
+        <v>390</v>
       </c>
       <c r="D60" t="s">
-        <v>537</v>
-      </c>
-      <c r="E60" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>501</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>166</v>
+        <v>503</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>504</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>505</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>506</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>509</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>510</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>512</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>513</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>514</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>515</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C80" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C82" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C86" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C89" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C90" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>516</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>162</v>
+      </c>
+      <c r="C92" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>518</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="B96" t="s">
-        <v>232</v>
+        <v>170</v>
+      </c>
+      <c r="C96" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>172</v>
+      </c>
+      <c r="C97" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="B100" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>521</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="B101" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>522</v>
       </c>
       <c r="D101" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>181</v>
+      </c>
+      <c r="C102" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>183</v>
+      </c>
+      <c r="C103" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>252</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>254</v>
+        <v>187</v>
+      </c>
+      <c r="C106" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>254</v>
+        <v>187</v>
+      </c>
+      <c r="C107" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="C108" t="s">
-        <v>528</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>523</v>
       </c>
       <c r="D110" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>525</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C114" t="s">
-        <v>271</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>204</v>
+      </c>
+      <c r="C117" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="B118" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="C118" t="s">
-        <v>280</v>
+        <v>529</v>
       </c>
       <c r="D118" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>283</v>
+        <v>530</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="D120" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>532</v>
       </c>
       <c r="D121" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="C122" t="s">
-        <v>294</v>
+        <v>533</v>
       </c>
       <c r="D122" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>297</v>
+        <v>534</v>
       </c>
       <c r="D123" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C124" t="s">
-        <v>300</v>
+        <v>535</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C125" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C126" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C127" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="B128" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C128" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C129" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="B130" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C130" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="B131" t="s">
-        <v>309</v>
+        <v>229</v>
+      </c>
+      <c r="C131" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
-        <v>312</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="C134" t="s">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="D134" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="B135" t="s">
         <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>320</v>
+        <v>539</v>
       </c>
       <c r="D135" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>238</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>239</v>
+      </c>
+      <c r="C136" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>324</v>
+        <v>240</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>239</v>
+      </c>
+      <c r="C137" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="C138" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="B139" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="B140" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="C140" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C141" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C142" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C143" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>332</v>
+        <v>248</v>
+      </c>
+      <c r="C144" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="C145" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>251</v>
+      </c>
+      <c r="C146" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="B147" t="s">
-        <v>332</v>
+        <v>248</v>
+      </c>
+      <c r="C147" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="B148" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="C148" t="s">
-        <v>339</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>341</v>
+        <v>541</v>
       </c>
       <c r="D149" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>344</v>
+        <v>542</v>
       </c>
       <c r="D150" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
       <c r="C151" t="s">
-        <v>348</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="C152" t="s">
-        <v>350</v>
+        <v>544</v>
       </c>
       <c r="D152" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C153" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>355</v>
+        <v>545</v>
       </c>
       <c r="D154" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>357</v>
+        <v>266</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C155" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C156" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="B157" t="s">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="C157" t="s">
-        <v>361</v>
+        <v>546</v>
       </c>
       <c r="D157" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>364</v>
+        <v>547</v>
       </c>
       <c r="D158" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>366</v>
+        <v>273</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="C159" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="B160" t="s">
         <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>370</v>
+        <v>548</v>
       </c>
       <c r="D160" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="B161" t="s">
-        <v>277</v>
+        <v>204</v>
+      </c>
+      <c r="C161" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C162" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>374</v>
+        <v>279</v>
       </c>
       <c r="B163" t="s">
-        <v>375</v>
+        <v>280</v>
+      </c>
+      <c r="C163" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>376</v>
+        <v>281</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>377</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s">
-        <v>379</v>
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>284</v>
+      </c>
+      <c r="C166" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C167" t="s">
-        <v>383</v>
+        <v>551</v>
       </c>
       <c r="D167" t="s">
-        <v>384</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>385</v>
+        <v>287</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="D168" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="B169" t="s">
         <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>389</v>
+        <v>553</v>
       </c>
       <c r="D169" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="D170" t="s">
-        <v>393</v>
+        <v>292</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>121</v>
+      </c>
+      <c r="C171" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="B172" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="C172" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="B173" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C173" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>399</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>400</v>
+        <v>298</v>
+      </c>
+      <c r="C174" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="B175" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="B176" t="s">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="C176" t="s">
-        <v>405</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>406</v>
+        <v>302</v>
       </c>
       <c r="B177" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C177" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>407</v>
+        <v>303</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="C178" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="B179" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="C179" t="s">
-        <v>410</v>
+        <v>557</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>411</v>
+        <v>306</v>
       </c>
       <c r="B180" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>558</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="B181" t="s">
-        <v>414</v>
+        <v>308</v>
+      </c>
+      <c r="C181" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>415</v>
+        <v>309</v>
       </c>
       <c r="B182" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
       <c r="C182" t="s">
-        <v>417</v>
+        <v>559</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>418</v>
+        <v>311</v>
       </c>
       <c r="B183" t="s">
-        <v>419</v>
+        <v>312</v>
+      </c>
+      <c r="C183" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="B184" t="s">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="C184" t="s">
-        <v>422</v>
+        <v>560</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>423</v>
+        <v>315</v>
       </c>
       <c r="B185" t="s">
-        <v>424</v>
+        <v>316</v>
       </c>
       <c r="C185" t="s">
-        <v>425</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="D186" t="s">
-        <v>428</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>429</v>
+        <v>319</v>
       </c>
       <c r="B187" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="C187" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="B188" t="s">
-        <v>430</v>
+        <v>320</v>
+      </c>
+      <c r="C188" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="B189" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C189" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="B190" t="s">
-        <v>222</v>
+        <v>162</v>
+      </c>
+      <c r="C190" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>435</v>
+        <v>324</v>
       </c>
       <c r="B191" t="s">
-        <v>222</v>
+        <v>162</v>
+      </c>
+      <c r="C191" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>325</v>
       </c>
       <c r="B192" t="s">
-        <v>222</v>
+        <v>162</v>
+      </c>
+      <c r="C192" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>437</v>
+        <v>326</v>
       </c>
       <c r="B193" t="s">
-        <v>222</v>
+        <v>162</v>
+      </c>
+      <c r="C193" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>438</v>
+        <v>327</v>
       </c>
       <c r="B194" t="s">
-        <v>332</v>
+        <v>248</v>
+      </c>
+      <c r="C194" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="B195" t="s">
-        <v>302</v>
+        <v>222</v>
+      </c>
+      <c r="C195" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>440</v>
+        <v>329</v>
       </c>
       <c r="B196" t="s">
-        <v>234</v>
+        <v>172</v>
+      </c>
+      <c r="C196" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="B197" t="s">
         <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>442</v>
+        <v>565</v>
       </c>
       <c r="D197" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="B198" t="s">
-        <v>445</v>
+        <v>333</v>
       </c>
       <c r="C198" t="s">
-        <v>446</v>
+        <v>566</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>447</v>
+        <v>334</v>
       </c>
       <c r="B199" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="C199" t="s">
-        <v>449</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="B200" t="s">
-        <v>448</v>
+        <v>335</v>
       </c>
       <c r="C200" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>452</v>
+        <v>337</v>
       </c>
       <c r="B201" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="C201" t="s">
-        <v>454</v>
+        <v>569</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>455</v>
+        <v>339</v>
       </c>
       <c r="B202" t="s">
-        <v>456</v>
+        <v>340</v>
       </c>
       <c r="C202" t="s">
-        <v>457</v>
+        <v>570</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>458</v>
+        <v>341</v>
       </c>
       <c r="B203" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C203" t="s">
-        <v>459</v>
+        <v>571</v>
       </c>
       <c r="D203" t="s">
-        <v>460</v>
+        <v>342</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C204" t="s">
-        <v>462</v>
+        <v>572</v>
       </c>
       <c r="D204" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C205" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>465</v>
+        <v>346</v>
       </c>
       <c r="B206" t="s">
-        <v>466</v>
+        <v>347</v>
+      </c>
+      <c r="C206" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>467</v>
+        <v>348</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
+      <c r="C207" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
       </c>
+      <c r="C208" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>470</v>
+        <v>573</v>
       </c>
       <c r="D209" t="s">
-        <v>471</v>
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>472</v>
+        <v>352</v>
       </c>
       <c r="B210" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C210" t="s">
-        <v>474</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>475</v>
+        <v>354</v>
       </c>
       <c r="B211" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C211" t="s">
-        <v>476</v>
+        <v>575</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>477</v>
+        <v>355</v>
       </c>
       <c r="B212" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C212" t="s">
-        <v>478</v>
+        <v>576</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>479</v>
+        <v>356</v>
       </c>
       <c r="B213" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C213" t="s">
-        <v>480</v>
+        <v>577</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>481</v>
+        <v>357</v>
       </c>
       <c r="B214" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C214" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>483</v>
+        <v>358</v>
       </c>
       <c r="B215" t="s">
-        <v>484</v>
+        <v>359</v>
       </c>
       <c r="C215" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="B216" t="s">
-        <v>484</v>
+        <v>359</v>
       </c>
       <c r="C216" t="s">
-        <v>487</v>
+        <v>580</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="B217" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C217" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="B218" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C218" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>492</v>
+        <v>363</v>
       </c>
       <c r="B219" t="s">
-        <v>484</v>
+        <v>359</v>
       </c>
       <c r="C219" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>494</v>
+        <v>364</v>
       </c>
       <c r="B220" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C220" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>496</v>
+        <v>365</v>
       </c>
       <c r="B221" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C221" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>498</v>
+        <v>366</v>
       </c>
       <c r="B222" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C222" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="B223" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C223" t="s">
-        <v>501</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>502</v>
+        <v>368</v>
       </c>
       <c r="B224" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C224" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>504</v>
+        <v>369</v>
       </c>
       <c r="B225" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C225" t="s">
-        <v>505</v>
+        <v>588</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>506</v>
+        <v>370</v>
       </c>
       <c r="B226" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C226" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="B227" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C227" t="s">
-        <v>509</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>510</v>
+        <v>372</v>
       </c>
       <c r="B228" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C228" t="s">
-        <v>511</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>512</v>
+        <v>373</v>
       </c>
       <c r="B229" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C229" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>514</v>
+        <v>374</v>
       </c>
       <c r="B230" t="s">
-        <v>473</v>
+        <v>353</v>
       </c>
       <c r="C230" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
